--- a/inputs/inputs.xlsx
+++ b/inputs/inputs.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="day2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="day3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="day5" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="527">
   <si>
     <t xml:space="preserve">forward 5</t>
   </si>
@@ -103,6 +104,1506 @@
   </si>
   <si>
     <t xml:space="preserve">up 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593,10 -&gt; 593,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777,236 -&gt; 964,236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650,575 -&gt; 476,575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,612 -&gt; 715,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508,707 -&gt; 508,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98,834 -&gt; 751,834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623,554 -&gt; 623,701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929,976 -&gt; 62,109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368,893 -&gt; 330,931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495,335 -&gt; 40,335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,704 -&gt; 423,704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683,711 -&gt; 683,487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,940 -&gt; 833,133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961,183 -&gt; 454,183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301,306 -&gt; 301,935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973,822 -&gt; 398,822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">639,911 -&gt; 515,911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">861,180 -&gt; 184,857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,97 -&gt; 857,923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966,376 -&gt; 966,114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881,485 -&gt; 881,377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930,98 -&gt; 110,918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841,889 -&gt; 841,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512,261 -&gt; 880,261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,533 -&gt; 48,674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207,226 -&gt; 52,226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">823,952 -&gt; 177,306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331,566 -&gt; 423,566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422,418 -&gt; 422,130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699,517 -&gt; 699,567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">757,784 -&gt; 241,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508,445 -&gt; 560,393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">866,275 -&gt; 435,706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74,41 -&gt; 74,258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386,369 -&gt; 334,317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240,94 -&gt; 240,969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">851,197 -&gt; 577,197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,906 -&gt; 741,193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286,227 -&gt; 286,293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">849,800 -&gt; 849,665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">736,307 -&gt; 336,307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,701 -&gt; 494,276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421,823 -&gt; 96,823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121,626 -&gt; 121,393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318,351 -&gt; 194,351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670,671 -&gt; 439,671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603,914 -&gt; 603,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,507 -&gt; 61,889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266,39 -&gt; 157,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">543,664 -&gt; 869,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382,709 -&gt; 884,709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499,80 -&gt; 548,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489,79 -&gt; 878,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695,86 -&gt; 644,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987,585 -&gt; 987,557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287,67 -&gt; 551,67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">975,983 -&gt; 35,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707,351 -&gt; 232,351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529,175 -&gt; 852,175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,811 -&gt; 604,811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106,153 -&gt; 815,153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,268 -&gt; 509,582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,922 -&gt; 312,922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220,500 -&gt; 872,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473,33 -&gt; 569,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858,847 -&gt; 162,151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937,947 -&gt; 26,36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726,435 -&gt; 402,435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686,601 -&gt; 474,813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764,880 -&gt; 84,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850,950 -&gt; 850,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413,620 -&gt; 413,285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">893,560 -&gt; 229,560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149,100 -&gt; 149,901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358,613 -&gt; 243,613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202,445 -&gt; 202,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127,153 -&gt; 513,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147,846 -&gt; 53,940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139,920 -&gt; 679,380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">913,953 -&gt; 913,735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339,466 -&gt; 339,177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113,882 -&gt; 647,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,880 -&gt; 134,880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">897,152 -&gt; 897,428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473,511 -&gt; 636,511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880,370 -&gt; 358,370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400,244 -&gt; 721,244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419,987 -&gt; 120,688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872,224 -&gt; 481,224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335,302 -&gt; 730,302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961,324 -&gt; 961,157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">769,301 -&gt; 959,301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">829,124 -&gt; 144,124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">523,372 -&gt; 985,372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520,33 -&gt; 520,685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554,644 -&gt; 808,898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82,676 -&gt; 870,676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303,612 -&gt; 303,705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338,40 -&gt; 338,939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">836,47 -&gt; 72,811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371,751 -&gt; 575,955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929,505 -&gt; 929,324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273,181 -&gt; 275,183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347,595 -&gt; 347,463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95,629 -&gt; 95,606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809,188 -&gt; 126,871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">857,924 -&gt; 145,212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668,277 -&gt; 668,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700,904 -&gt; 700,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814,899 -&gt; 22,899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,98 -&gt; 714,607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">943,28 -&gt; 40,931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282,620 -&gt; 773,129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424,803 -&gt; 285,803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">688,329 -&gt; 299,329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146,628 -&gt; 34,628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573,417 -&gt; 164,826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292,232 -&gt; 412,112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412,508 -&gt; 145,508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">632,648 -&gt; 632,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885,904 -&gt; 885,513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295,981 -&gt; 132,818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134,681 -&gt; 41,681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810,531 -&gt; 959,531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188,590 -&gt; 188,215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960,795 -&gt; 189,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729,211 -&gt; 729,833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214,817 -&gt; 845,817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196,609 -&gt; 584,609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384,908 -&gt; 384,101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770,907 -&gt; 770,530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451,469 -&gt; 451,812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571,261 -&gt; 834,261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">799,436 -&gt; 799,983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248,105 -&gt; 248,879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">783,906 -&gt; 783,903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955,670 -&gt; 790,670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723,750 -&gt; 723,429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572,427 -&gt; 546,427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610,341 -&gt; 527,341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925,426 -&gt; 816,317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151,403 -&gt; 151,684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408,969 -&gt; 408,369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276,425 -&gt; 276,75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186,86 -&gt; 186,758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412,420 -&gt; 412,531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361,60 -&gt; 976,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787,649 -&gt; 667,769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,866 -&gt; 91,866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319,963 -&gt; 51,963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112,866 -&gt; 112,747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291,475 -&gt; 504,475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175,116 -&gt; 357,116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">968,961 -&gt; 968,213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,12 -&gt; 987,986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640,728 -&gt; 767,728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">981,505 -&gt; 246,505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">864,981 -&gt; 128,981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91,66 -&gt; 931,906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">798,116 -&gt; 91,823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552,74 -&gt; 88,538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620,872 -&gt; 232,872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,229 -&gt; 658,229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413,75 -&gt; 413,436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815,257 -&gt; 815,686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989,22 -&gt; 36,975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178,904 -&gt; 233,849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">635,128 -&gt; 635,96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640,820 -&gt; 640,313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">890,787 -&gt; 167,64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221,22 -&gt; 826,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">914,132 -&gt; 60,986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">848,31 -&gt; 392,487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105,969 -&gt; 858,969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">903,868 -&gt; 143,108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,941 -&gt; 621,358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171,340 -&gt; 14,497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286,460 -&gt; 81,255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726,688 -&gt; 857,819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">494,689 -&gt; 510,689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517,913 -&gt; 598,913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932,66 -&gt; 932,431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">977,982 -&gt; 18,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95,101 -&gt; 95,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574,467 -&gt; 349,467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,803 -&gt; 63,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">838,874 -&gt; 255,874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900,752 -&gt; 181,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102,897 -&gt; 989,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,439 -&gt; 374,277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513,504 -&gt; 513,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814,932 -&gt; 814,407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824,656 -&gt; 959,521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415,570 -&gt; 616,570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577,880 -&gt; 577,181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287,524 -&gt; 986,524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955,665 -&gt; 323,665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556,365 -&gt; 263,658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154,226 -&gt; 886,226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">803,750 -&gt; 866,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558,725 -&gt; 558,395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">941,115 -&gt; 941,150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,410 -&gt; 180,874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458,753 -&gt; 112,753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199,253 -&gt; 363,253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423,650 -&gt; 22,650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">892,851 -&gt; 279,238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611,109 -&gt; 611,198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983,344 -&gt; 339,988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299,47 -&gt; 299,934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435,652 -&gt; 700,387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186,775 -&gt; 677,284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136,576 -&gt; 136,368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">818,744 -&gt; 305,744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">767,171 -&gt; 767,431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930,842 -&gt; 259,171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342,831 -&gt; 342,601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193,672 -&gt; 46,525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925,164 -&gt; 528,164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725,92 -&gt; 617,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,729 -&gt; 67,739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547,153 -&gt; 547,245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">763,434 -&gt; 763,509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314,888 -&gt; 357,888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,645 -&gt; 491,645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,67 -&gt; 240,67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">827,936 -&gt; 788,897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">852,378 -&gt; 77,378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448,337 -&gt; 668,337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846,739 -&gt; 499,739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">465,691 -&gt; 315,541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">716,163 -&gt; 18,861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78,965 -&gt; 983,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114,952 -&gt; 820,246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">950,351 -&gt; 419,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266,36 -&gt; 266,482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773,841 -&gt; 773,66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">742,198 -&gt; 742,46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417,512 -&gt; 304,625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900,277 -&gt; 900,338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983,431 -&gt; 473,941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">986,282 -&gt; 734,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">742,19 -&gt; 769,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">952,320 -&gt; 948,324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,590 -&gt; 548,590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107,39 -&gt; 107,696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603,749 -&gt; 603,26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,282 -&gt; 888,282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670,848 -&gt; 985,533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">981,982 -&gt; 92,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147,428 -&gt; 649,930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773,737 -&gt; 821,785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">791,576 -&gt; 791,852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327,672 -&gt; 530,469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">847,122 -&gt; 381,122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419,493 -&gt; 498,572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879,842 -&gt; 879,239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267,717 -&gt; 267,869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142,449 -&gt; 174,417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342,718 -&gt; 342,397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603,207 -&gt; 314,207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612,648 -&gt; 735,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,10 -&gt; 971,944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">891,716 -&gt; 891,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252,217 -&gt; 662,627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185,165 -&gt; 941,921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">854,717 -&gt; 676,717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158,791 -&gt; 336,791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762,226 -&gt; 98,890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73,189 -&gt; 92,189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649,511 -&gt; 253,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719,456 -&gt; 514,251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605,286 -&gt; 325,286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454,609 -&gt; 454,489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,541 -&gt; 783,541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599,177 -&gt; 94,682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600,384 -&gt; 32,384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810,933 -&gt; 39,162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">780,871 -&gt; 409,871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,639 -&gt; 24,316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454,80 -&gt; 454,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556,541 -&gt; 907,541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627,295 -&gt; 750,295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245,71 -&gt; 214,102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725,445 -&gt; 614,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">779,538 -&gt; 779,390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">746,667 -&gt; 351,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117,776 -&gt; 117,660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">498,495 -&gt; 88,905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697,721 -&gt; 697,919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580,314 -&gt; 580,166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,656 -&gt; 641,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413,433 -&gt; 44,802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182,305 -&gt; 805,928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">739,277 -&gt; 739,499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172,210 -&gt; 172,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894,576 -&gt; 894,322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265,263 -&gt; 265,437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430,228 -&gt; 780,578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464,531 -&gt; 798,531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">713,63 -&gt; 668,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918,831 -&gt; 256,169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414,375 -&gt; 467,375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440,32 -&gt; 391,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439,806 -&gt; 955,806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335,820 -&gt; 335,279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">727,458 -&gt; 422,458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312,274 -&gt; 619,581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136,724 -&gt; 538,322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">589,680 -&gt; 589,850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335,648 -&gt; 232,545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499,216 -&gt; 405,216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942,710 -&gt; 942,455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969,556 -&gt; 721,556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756,552 -&gt; 756,902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98,870 -&gt; 445,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476,833 -&gt; 476,269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820,127 -&gt; 407,127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337,519 -&gt; 714,519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756,95 -&gt; 11,840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317,339 -&gt; 317,286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353,86 -&gt; 43,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,950 -&gt; 938,105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705,509 -&gt; 705,319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244,879 -&gt; 721,402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434,794 -&gt; 711,517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272,381 -&gt; 431,381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652,104 -&gt; 652,587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850,866 -&gt; 34,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645,902 -&gt; 79,336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701,39 -&gt; 701,295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">492,793 -&gt; 95,396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352,554 -&gt; 395,554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123,405 -&gt; 322,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">941,745 -&gt; 716,520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450,512 -&gt; 569,631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,25 -&gt; 817,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">909,387 -&gt; 909,863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919,934 -&gt; 919,546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439,881 -&gt; 569,881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167,866 -&gt; 167,669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242,264 -&gt; 242,694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">981,786 -&gt; 228,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452,434 -&gt; 452,660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,26 -&gt; 22,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,155 -&gt; 677,806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801,627 -&gt; 313,627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">657,135 -&gt; 657,270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872,875 -&gt; 440,443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636,248 -&gt; 636,338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776,51 -&gt; 93,51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">498,600 -&gt; 894,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263,984 -&gt; 263,807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416,390 -&gt; 899,873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269,137 -&gt; 976,137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">752,12 -&gt; 752,617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,925 -&gt; 548,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">856,551 -&gt; 771,551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653,93 -&gt; 653,587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403,286 -&gt; 403,417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">895,706 -&gt; 221,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139,822 -&gt; 139,928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">696,194 -&gt; 696,143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270,678 -&gt; 710,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879,353 -&gt; 879,360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">949,712 -&gt; 752,712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665,661 -&gt; 817,661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462,952 -&gt; 980,434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692,766 -&gt; 692,478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157,117 -&gt; 144,117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">438,701 -&gt; 408,701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401,703 -&gt; 401,724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876,831 -&gt; 108,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749,892 -&gt; 832,892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455,124 -&gt; 455,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551,222 -&gt; 551,372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533,80 -&gt; 726,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342,740 -&gt; 56,740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">793,370 -&gt; 34,370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">949,614 -&gt; 949,623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610,287 -&gt; 610,760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978,834 -&gt; 85,834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644,894 -&gt; 644,341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,887 -&gt; 176,887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168,958 -&gt; 964,162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341,886 -&gt; 341,470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417,845 -&gt; 417,702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338,347 -&gt; 304,313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">651,10 -&gt; 72,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">853,160 -&gt; 853,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381,568 -&gt; 436,623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794,437 -&gt; 250,437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">861,72 -&gt; 206,72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807,813 -&gt; 807,827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820,502 -&gt; 820,329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547,508 -&gt; 547,773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160,129 -&gt; 160,175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756,468 -&gt; 756,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442,661 -&gt; 405,661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304,817 -&gt; 304,765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99,42 -&gt; 957,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212,110 -&gt; 854,752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,620 -&gt; 661,620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212,311 -&gt; 784,883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329,671 -&gt; 329,908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,359 -&gt; 553,826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257,799 -&gt; 934,122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409,663 -&gt; 409,367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528,623 -&gt; 593,688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">957,525 -&gt; 544,938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846,766 -&gt; 113,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176,680 -&gt; 176,102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167,287 -&gt; 167,929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932,870 -&gt; 834,968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,774 -&gt; 49,774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745,231 -&gt; 70,906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435,760 -&gt; 138,463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776,810 -&gt; 625,810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">928,930 -&gt; 76,78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">602,24 -&gt; 602,688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394,424 -&gt; 65,424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">946,966 -&gt; 93,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">494,39 -&gt; 951,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607,699 -&gt; 832,699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,403 -&gt; 391,403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726,475 -&gt; 726,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828,625 -&gt; 836,617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">396,770 -&gt; 167,770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,546 -&gt; 374,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,113 -&gt; 837,894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290,589 -&gt; 740,139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930,805 -&gt; 296,171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">646,895 -&gt; 49,895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111,15 -&gt; 111,497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,274 -&gt; 570,833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257,624 -&gt; 603,624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,844 -&gt; 666,844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846,661 -&gt; 846,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431,72 -&gt; 431,674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726,674 -&gt; 726,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286,660 -&gt; 286,909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">847,222 -&gt; 847,861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325,896 -&gt; 325,416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">793,953 -&gt; 365,953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987,956 -&gt; 62,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845,853 -&gt; 363,371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79,782 -&gt; 506,782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424,21 -&gt; 424,369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938,162 -&gt; 177,923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,193 -&gt; 799,906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320,164 -&gt; 320,654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">840,306 -&gt; 840,711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">852,736 -&gt; 852,690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876,966 -&gt; 143,233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787,926 -&gt; 38,177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,112 -&gt; 340,112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132,541 -&gt; 740,541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,28 -&gt; 968,967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">916,212 -&gt; 170,958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371,553 -&gt; 521,403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88,796 -&gt; 870,796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656,367 -&gt; 71,367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">785,166 -&gt; 785,427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320,30 -&gt; 320,549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">909,527 -&gt; 816,620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832,965 -&gt; 302,965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">672,259 -&gt; 80,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">578,513 -&gt; 578,243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">975,561 -&gt; 537,123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135,330 -&gt; 188,330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501,695 -&gt; 501,573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">717,230 -&gt; 878,230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">854,501 -&gt; 27,501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705,885 -&gt; 950,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">704,338 -&gt; 704,630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477,485 -&gt; 864,485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901,42 -&gt; 305,638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660,540 -&gt; 660,546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555,79 -&gt; 190,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226,126 -&gt; 800,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">575,908 -&gt; 944,908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94,478 -&gt; 94,746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">461,425 -&gt; 929,893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">861,429 -&gt; 451,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832,825 -&gt; 179,172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186,133 -&gt; 298,133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">684,270 -&gt; 558,270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">786,872 -&gt; 125,872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649,178 -&gt; 649,595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">893,738 -&gt; 412,257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">760,854 -&gt; 901,713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,914 -&gt; 866,64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">935,928 -&gt; 266,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323,229 -&gt; 32,229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608,828 -&gt; 608,49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715,892 -&gt; 74,251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787,187 -&gt; 787,903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405,793 -&gt; 405,183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232,704 -&gt; 232,389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,706 -&gt; 130,657</t>
   </si>
 </sst>
 </file>
@@ -15278,7 +16779,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
@@ -20297,4 +21798,2531 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A500"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>